--- a/Dados/Debug/Resumo/Resumo.xlsx
+++ b/Dados/Debug/Resumo/Resumo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,12 +437,6 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -452,17 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cromossoma 24</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Cromossoma 16</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cromossoma 77</t>
+          <t>Cromossoma 81</t>
         </is>
       </c>
     </row>
@@ -473,13 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1254.411466201176</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1274.621840828711</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1218.154940852684</v>
+        <v>1279.651252206585</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
-      </c>
-      <c r="C4" t="n">
         <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83</v>
-      </c>
-      <c r="C5" t="n">
-        <v>84</v>
-      </c>
-      <c r="D5" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84</v>
-      </c>
-      <c r="C6" t="n">
         <v>83</v>
-      </c>
-      <c r="D6" t="n">
-        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167</v>
-      </c>
-      <c r="C7" t="n">
-        <v>167</v>
-      </c>
-      <c r="D7" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02017395506160908</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01963320009405126</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01961013190148243</v>
+        <v>0.01956367085605881</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02017395506160908</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01963320009405126</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.01961013190148243</v>
+        <v>0.01956367085605881</v>
       </c>
     </row>
   </sheetData>
